--- a/Unity/Assets/Config/Excel/MapConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MapConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>AssetPath</t>
   </si>
   <si>
+    <t>NavName</t>
+  </si>
+  <si>
     <t>PlayerSpawnPoint</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>资源路径</t>
   </si>
   <si>
+    <t>寻路</t>
+  </si>
+  <si>
     <t>玩家出生点</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t>0,0,0</t>
+  </si>
+  <si>
+    <t>地图2</t>
   </si>
 </sst>
 </file>
@@ -1068,24 +1077,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.2333333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.8333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.3583333333333" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="4" max="5" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.8333333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.3583333333333" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,63 +1113,93 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:6">
+    <row r="4" s="3" customFormat="1" spans="2:7">
       <c r="B4" s="8">
         <v>1001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8">
         <v>1001</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="8">
         <v>1001</v>
       </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:7">
+      <c r="B5" s="8">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1002</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/MapConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="ServerInfoConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>地图1</t>
+  </si>
+  <si>
+    <t>TestMap</t>
   </si>
   <si>
     <t>0,0,0</t>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1170,14 +1173,14 @@
       <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8">
-        <v>1001</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1001</v>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="8">
         <v>1001</v>
@@ -1188,7 +1191,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8">
         <v>1002</v>
@@ -1197,7 +1200,7 @@
         <v>1001</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8"/>
     </row>
